--- a/PTBR/Lang/PTBR/Game/HomeResource.xlsx
+++ b/PTBR/Lang/PTBR/Game/HomeResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE582FA5-7B2E-4CAC-8A4D-7EF66A029D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D306E1-7AEE-43D6-A414-27970813DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="315" windowWidth="26130" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeResource" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -253,10 +253,19 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>(Indisponível)</t>
-  </si>
-  <si>
     <t>Carma</t>
+  </si>
+  <si>
+    <t>Lugar para armazenar suprimentos</t>
+  </si>
+  <si>
+    <t>Espaço onde os moradores vivem</t>
+  </si>
+  <si>
+    <t>(Não implementado)</t>
+  </si>
+  <si>
+    <t>Lugar para cultivar e colher plantações</t>
   </si>
 </sst>
 </file>
@@ -638,13 +647,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -690,6 +699,9 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
@@ -710,6 +722,9 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
@@ -731,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -754,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -776,6 +791,9 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
@@ -797,7 +815,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -820,7 +838,7 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -868,7 +886,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>

--- a/PTBR/Lang/PTBR/Game/HomeResource.xlsx
+++ b/PTBR/Lang/PTBR/Game/HomeResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D306E1-7AEE-43D6-A414-27970813DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE314F-2F1F-4160-80DB-AEFACB9A9653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="315" windowWidth="26130" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeResource" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
